--- a/WSC/Test Cases/Infrastructure/WSC Infrastructure Maintenance Asset Test Cases.xlsx
+++ b/WSC/Test Cases/Infrastructure/WSC Infrastructure Maintenance Asset Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="599" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="356">
   <si>
     <t>Contents</t>
   </si>
@@ -114,10 +114,16 @@
     <t>Different user credentials should be used :- super admin</t>
   </si>
   <si>
-    <t>Credential for Infrastructure super admin:
-URL: https://soulwsc.eduleadonline.com/app/infrastructure
-User ID: Administrator
-Password: admin</t>
+    <t xml:space="preserve">Credential for Infrastructure super admin:
+URL: https://wscdemo.eduleadonline.com
+Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
+User ID                                                          Password
+---------------------------------------------------------------------------------
+project.manager@soulunileaders.com    erp@123
+building.admin@mail.com                          erp@123
+floor.supervisor@mail.com                        erp@123
+maintenance.dept@gmail.com                  erp@123
+</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -396,6 +402,17 @@
     <t>Test Asset Maintenance_Asset Maintenance Team</t>
   </si>
   <si>
+    <t xml:space="preserve">Credential for Infrastructure super admin:
+URL: https://wscdemo.eduleadonline.com
+Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
+User ID                                                          Password
+project.manager@soulunileaders.com    erp@123
+building.admin@mail.com                          erp@123
+floor.supervisor@mail.com                        erp@123
+maintenance.dept@gmail.com                  erp@123
+</t>
+  </si>
+  <si>
     <t>Verify the Asset Maintenance Team module.</t>
   </si>
   <si>
@@ -461,6 +478,18 @@
     <t xml:space="preserve">Test Infrastructure Maintenance_Asset Maintenance </t>
   </si>
   <si>
+    <t xml:space="preserve">Credential for Infrastructure super admin:
+URL: https://wscdemo.eduleadonline.com
+Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
+User ID                                                          Password
+------------------------------------------------------------------------------
+project.manager@soulunileaders.com    erp@123
+building.admin@mail.com                         erp@123
+floor.supervisor@mail.com                       erp@123
+maintenance.dept@gmail.com                 erp@123
+</t>
+  </si>
+  <si>
     <t>Home &gt; Infrastructure Management &amp; Maintenance &gt; Asset Maintenance &gt; Asset Maintenance</t>
   </si>
   <si>
@@ -524,6 +553,18 @@
   </si>
   <si>
     <t>User Id:-Administrator Pwd:-wsc@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credential for Infrastructure super admin:
+URL: https://wscdemo.eduleadonline.com
+Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
+User ID                                                          Password
+-----------------------------------------------------------------------------------
+project.manager@soulunileaders.com   erp@123
+building.admin@mail.com                         erp@123
+floor.supervisor@mail.com                       erp@123
+maintenance.dept@gmail.com                 erp@123
+</t>
   </si>
   <si>
     <t>Verify the Infrastructure Maintenance_Asset Maintenance Log</t>
@@ -728,6 +769,18 @@
   </si>
   <si>
     <t>Test Asset Repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credential for Infrastructure super admin:
+URL: https://wscdemo.eduleadonline.com
+Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
+User ID                                                          Password
+---------------------------------------------------------------------------------
+project.manager@soulunileaders.com     erp@123
+building.admin@mail.com                         erp@123
+floor.supervisor@mail.com                       erp@123
+maintenance.dept@gmail.com                 erp@123
+</t>
   </si>
   <si>
     <t>Verify the Infrastructure module_Asset Repair</t>
@@ -2690,8 +2743,8 @@
   <sheetPr/>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -2804,7 +2857,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="145" spans="2:8">
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
@@ -3313,8 +3366,8 @@
   <sheetPr/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A30" sqref="$A30:$XFD33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3427,9 +3480,9 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="130.5" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3443,7 +3496,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3498,7 +3551,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -3511,11 +3564,11 @@
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="9"/>
@@ -3530,7 +3583,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="9"/>
@@ -3541,11 +3594,11 @@
         <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="9"/>
@@ -3556,11 +3609,11 @@
         <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="9"/>
@@ -3586,11 +3639,11 @@
         <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="9"/>
@@ -3601,7 +3654,7 @@
         <v>51</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
@@ -3616,11 +3669,11 @@
         <v>53</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" s="49"/>
       <c r="D21" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3631,7 +3684,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" s="49"/>
       <c r="D22" s="46" t="s">
@@ -3646,7 +3699,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="46" t="s">
@@ -3661,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="46" t="s">
@@ -3833,8 +3886,8 @@
   <sheetPr/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -3852,14 +3905,14 @@
         <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
@@ -3947,9 +4000,9 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="58" spans="2:8">
+    <row r="8" ht="145" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3963,7 +4016,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4018,7 +4071,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -4031,11 +4084,11 @@
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="9"/>
@@ -4050,7 +4103,7 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="9"/>
@@ -4061,11 +4114,11 @@
         <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="9"/>
@@ -4076,11 +4129,11 @@
         <v>43</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="9"/>
@@ -4106,7 +4159,7 @@
         <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
@@ -4119,11 +4172,11 @@
         <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="9"/>
@@ -4134,7 +4187,7 @@
         <v>53</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
@@ -4164,7 +4217,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="4" t="s">
@@ -4179,7 +4232,7 @@
         <v>62</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C24" s="49"/>
       <c r="D24" s="4" t="s">
@@ -4194,7 +4247,7 @@
         <v>65</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C25" s="49"/>
       <c r="D25" s="46" t="s">
@@ -4209,7 +4262,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="46" t="s">
@@ -4224,7 +4277,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="46" t="s">
@@ -4362,8 +4415,8 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A31" sqref="$A31:$XFD34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -4381,14 +4434,14 @@
         <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
@@ -4459,15 +4512,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="58" spans="1:8">
+    <row r="7" ht="145" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4490,7 +4543,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4546,7 +4599,7 @@
     <row r="13" s="1" customFormat="1" ht="43.5" spans="1:8">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -4560,11 +4613,11 @@
         <v>35</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
@@ -4576,7 +4629,7 @@
         <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -4590,11 +4643,11 @@
         <v>41</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="34"/>
@@ -4606,11 +4659,11 @@
         <v>43</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="34"/>
@@ -4622,7 +4675,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
@@ -4638,11 +4691,11 @@
         <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="39"/>
@@ -4654,11 +4707,11 @@
         <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="39"/>
@@ -4670,11 +4723,11 @@
         <v>53</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="39"/>
@@ -4686,11 +4739,11 @@
         <v>56</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E22" s="35"/>
       <c r="F22" s="39"/>
@@ -4702,7 +4755,7 @@
         <v>59</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
@@ -4718,11 +4771,11 @@
         <v>62</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C24" s="46"/>
       <c r="D24" s="46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E24" s="47"/>
       <c r="F24" s="48"/>
@@ -4734,11 +4787,11 @@
         <v>65</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E25" s="35"/>
       <c r="F25" s="37"/>
@@ -4750,11 +4803,11 @@
         <v>68</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E26" s="35"/>
       <c r="F26" s="37"/>
@@ -4766,11 +4819,11 @@
         <v>71</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E27" s="35"/>
       <c r="F27" s="37"/>
@@ -4782,11 +4835,11 @@
         <v>74</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E28" s="35"/>
       <c r="F28" s="37"/>
@@ -4798,11 +4851,11 @@
         <v>77</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="37"/>
@@ -4880,8 +4933,8 @@
   <sheetPr/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="$A23:$XFD26"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
@@ -4896,14 +4949,14 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
@@ -4974,15 +5027,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="58" spans="1:8">
+    <row r="7" ht="145" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5005,7 +5058,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -5061,7 +5114,7 @@
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:8">
       <c r="A13" s="14"/>
       <c r="B13" s="33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -5075,11 +5128,11 @@
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="36"/>
@@ -5091,11 +5144,11 @@
         <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="34"/>
@@ -5107,11 +5160,11 @@
         <v>41</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E16" s="35"/>
       <c r="F16" s="34"/>
@@ -5123,7 +5176,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3"/>
@@ -5137,14 +5190,14 @@
         <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="37"/>
@@ -5155,11 +5208,11 @@
         <v>49</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E19" s="35"/>
       <c r="F19" s="37"/>
@@ -5171,11 +5224,11 @@
         <v>51</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E20" s="35"/>
       <c r="F20" s="37"/>
@@ -5187,11 +5240,11 @@
         <v>53</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E21" s="35"/>
       <c r="F21" s="37"/>
@@ -5268,7 +5321,7 @@
   <sheetPr/>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
@@ -5287,14 +5340,14 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -5345,12 +5398,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -5379,7 +5432,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5438,7 +5491,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
@@ -5451,11 +5504,11 @@
         <v>35</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="17" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5466,11 +5519,11 @@
         <v>38</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="17" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5481,11 +5534,11 @@
         <v>41</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5505,7 +5558,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
@@ -5518,11 +5571,11 @@
         <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5533,11 +5586,11 @@
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -5548,11 +5601,11 @@
         <v>53</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -5563,11 +5616,11 @@
         <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -5576,7 +5629,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
@@ -5589,11 +5642,11 @@
         <v>59</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -5602,7 +5655,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -5615,11 +5668,11 @@
         <v>62</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -5630,11 +5683,11 @@
         <v>65</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -5645,11 +5698,11 @@
         <v>68</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -5660,7 +5713,7 @@
         <v>71</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
@@ -5673,7 +5726,7 @@
         <v>74</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
@@ -5684,7 +5737,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="15"/>
       <c r="B31" s="20" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
@@ -5697,11 +5750,11 @@
         <v>77</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -5712,11 +5765,11 @@
         <v>80</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -5727,11 +5780,11 @@
         <v>83</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -5742,11 +5795,11 @@
         <v>86</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -5757,11 +5810,11 @@
         <v>89</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="9" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -5772,11 +5825,11 @@
         <v>92</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -5787,11 +5840,11 @@
         <v>95</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -5799,14 +5852,14 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -5814,14 +5867,14 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -5829,14 +5882,14 @@
     </row>
     <row r="41" ht="72.5" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -5844,14 +5897,14 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -5859,14 +5912,14 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -5874,14 +5927,14 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -5889,14 +5942,14 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -5904,14 +5957,14 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="9" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -5919,10 +5972,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="9"/>
@@ -5932,14 +5985,14 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="9" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -5947,10 +6000,10 @@
     </row>
     <row r="49" ht="29" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="9"/>
@@ -5960,14 +6013,14 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -5975,10 +6028,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="9"/>
@@ -5988,10 +6041,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="9"/>
@@ -6001,10 +6054,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="9"/>
@@ -6014,10 +6067,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="9"/>
@@ -6037,7 +6090,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="20" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="9"/>
@@ -6047,14 +6100,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="9" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -6072,7 +6125,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="20" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="9"/>
@@ -6082,14 +6135,14 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="9" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -6097,14 +6150,14 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -6112,14 +6165,14 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -6127,31 +6180,31 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="9" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="9" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -6159,14 +6212,14 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="9" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -6174,14 +6227,14 @@
     </row>
     <row r="66" ht="43.5" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="9" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -6189,14 +6242,14 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="9" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -6204,14 +6257,14 @@
     </row>
     <row r="68" ht="159.5" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -6219,14 +6272,14 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -6234,14 +6287,14 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="9" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -6249,14 +6302,14 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="9" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -6264,14 +6317,14 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="9" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="9"/>
@@ -6279,14 +6332,14 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="9" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="9"/>
@@ -6294,14 +6347,14 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="9" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="9"/>
@@ -6309,14 +6362,14 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="9"/>
@@ -6324,14 +6377,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="9" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -6339,14 +6392,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="9" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -6355,7 +6408,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -6365,14 +6418,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="3"/>
@@ -6380,14 +6433,14 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="3"/>
@@ -6395,14 +6448,14 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/WSC/Test Cases/Infrastructure/WSC Infrastructure Maintenance Asset Test Cases.xlsx
+++ b/WSC/Test Cases/Infrastructure/WSC Infrastructure Maintenance Asset Test Cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="599" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="599" firstSheet="3" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="366">
   <si>
     <t>Contents</t>
   </si>
@@ -114,16 +114,10 @@
     <t>Different user credentials should be used :- super admin</t>
   </si>
   <si>
-    <t xml:space="preserve">Credential for Infrastructure super admin:
-URL: https://wscdemo.eduleadonline.com
-Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
-User ID                                                          Password
----------------------------------------------------------------------------------
-project.manager@soulunileaders.com    erp@123
-building.admin@mail.com                          erp@123
-floor.supervisor@mail.com                        erp@123
-maintenance.dept@gmail.com                  erp@123
-</t>
+    <t>Credential for Infrastructure super admin:
+URL: https://soulwsc.eduleadonline.com/app/infrastructure
+User ID: building.admin@mail.com
+Password: admin</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -166,6 +160,12 @@
     <t>Asset page opens up.</t>
   </si>
   <si>
+    <t>Asset page is opening</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Step 2</t>
   </si>
   <si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>New Asset Page opens up.</t>
+  </si>
+  <si>
+    <t>New Asset page is opening</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>Step 3</t>
@@ -198,6 +204,9 @@
     <t>The New Assets details will be saved successfully.</t>
   </si>
   <si>
+    <t>Testing blocked due to dependency on purchase and inventory</t>
+  </si>
+  <si>
     <t>Step 5</t>
   </si>
   <si>
@@ -205,6 +214,9 @@
   </si>
   <si>
     <t>The error message must be shown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error message is displaying </t>
   </si>
   <si>
     <t>Step 6</t>
@@ -216,10 +228,16 @@
 -Customer</t>
   </si>
   <si>
+    <t xml:space="preserve">Dropdown is dispalying as expected </t>
+  </si>
+  <si>
     <t>Step 7</t>
   </si>
   <si>
     <t>The Asset Owner Company should be "World Skill Center" autogenerated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "World Skill Center" is autogenerating.</t>
   </si>
   <si>
     <t>Step 8</t>
@@ -402,15 +420,10 @@
     <t>Test Asset Maintenance_Asset Maintenance Team</t>
   </si>
   <si>
-    <t xml:space="preserve">Credential for Infrastructure super admin:
-URL: https://wscdemo.eduleadonline.com
-Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
-User ID                                                          Password
-project.manager@soulunileaders.com    erp@123
-building.admin@mail.com                          erp@123
-floor.supervisor@mail.com                        erp@123
-maintenance.dept@gmail.com                  erp@123
-</t>
+    <t>Credential for Infrastructure super admin:
+URL: https://soulwsc.eduleadonline.com/app/infrastructure
+User ID: Administrator
+Password: admin</t>
   </si>
   <si>
     <t>Verify the Asset Maintenance Team module.</t>
@@ -425,7 +438,13 @@
     <t>Asset Maintenance Team page opens up.</t>
   </si>
   <si>
+    <t xml:space="preserve">Asset maintence page is opening </t>
+  </si>
+  <si>
     <t>New Asset Maintenance Team Page opens up.</t>
+  </si>
+  <si>
+    <t>New Asset maintaince page is opening</t>
   </si>
   <si>
     <t>Click on "+ Add Asset Maintenance Team" page.</t>
@@ -478,18 +497,6 @@
     <t xml:space="preserve">Test Infrastructure Maintenance_Asset Maintenance </t>
   </si>
   <si>
-    <t xml:space="preserve">Credential for Infrastructure super admin:
-URL: https://wscdemo.eduleadonline.com
-Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
-User ID                                                          Password
-------------------------------------------------------------------------------
-project.manager@soulunileaders.com    erp@123
-building.admin@mail.com                         erp@123
-floor.supervisor@mail.com                       erp@123
-maintenance.dept@gmail.com                 erp@123
-</t>
-  </si>
-  <si>
     <t>Home &gt; Infrastructure Management &amp; Maintenance &gt; Asset Maintenance &gt; Asset Maintenance</t>
   </si>
   <si>
@@ -553,18 +560,6 @@
   </si>
   <si>
     <t>User Id:-Administrator Pwd:-wsc@123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credential for Infrastructure super admin:
-URL: https://wscdemo.eduleadonline.com
-Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
-User ID                                                          Password
------------------------------------------------------------------------------------
-project.manager@soulunileaders.com   erp@123
-building.admin@mail.com                         erp@123
-floor.supervisor@mail.com                       erp@123
-maintenance.dept@gmail.com                 erp@123
-</t>
   </si>
   <si>
     <t>Verify the Infrastructure Maintenance_Asset Maintenance Log</t>
@@ -771,18 +766,6 @@
     <t>Test Asset Repair</t>
   </si>
   <si>
-    <t xml:space="preserve">Credential for Infrastructure super admin:
-URL: https://wscdemo.eduleadonline.com
-Please find below the credentials for Infrastructure, maintenance, and Project Management testing. 
-User ID                                                          Password
----------------------------------------------------------------------------------
-project.manager@soulunileaders.com     erp@123
-building.admin@mail.com                         erp@123
-floor.supervisor@mail.com                       erp@123
-maintenance.dept@gmail.com                 erp@123
-</t>
-  </si>
-  <si>
     <t>Verify the Infrastructure module_Asset Repair</t>
   </si>
   <si>
@@ -793,7 +776,13 @@
     <t>Click on Home &gt;Infrastructure Management &amp; Maintenance &gt;Asset Maintenance &gt; Asset Repair</t>
   </si>
   <si>
-    <t>Asset Repair is displayed.</t>
+    <t>Asset Repair should be  beplayed.</t>
+  </si>
+  <si>
+    <t>Asset is dispalying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -801,7 +790,10 @@
 </t>
   </si>
   <si>
-    <t>New Asset Repair Page is displayed.</t>
+    <t>New Asset Repair Page should be  beplayed.</t>
+  </si>
+  <si>
+    <t>New Asset</t>
   </si>
   <si>
     <r>
@@ -845,7 +837,7 @@
     </r>
   </si>
   <si>
-    <t>New Asset Repair Page is saved with details being entered.</t>
+    <t>New Asset Repair Page should be saved with details being entered.</t>
   </si>
   <si>
     <t>ONce Asset is filled up the Asset Name is automatically  saved.</t>
@@ -861,19 +853,19 @@
     <t>Once the data is filled properly adn saved click on "SUBMIT" button</t>
   </si>
   <si>
-    <t>The message box is shown with "Permanently Submit ACC-ASR-2023-00001?"</t>
+    <t>The message box should be shown with "Permanently Submit ACC-ASR-2023-00001?"</t>
   </si>
   <si>
     <t>Click on "Yes".</t>
   </si>
   <si>
-    <t>The message is diplayed "Please update Repair Status."</t>
+    <t>The message should be diplayed "Please update Repair Status."</t>
   </si>
   <si>
     <t>Click on "No".</t>
   </si>
   <si>
-    <t>No message is displayed.</t>
+    <t>No message should be  beplayed.</t>
   </si>
   <si>
     <t xml:space="preserve">Generic </t>
@@ -1448,7 +1440,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1475,6 +1467,13 @@
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.15"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2076,135 +2075,135 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2251,16 +2250,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2281,7 +2295,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2294,8 +2308,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2306,22 +2320,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2655,75 +2673,75 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="20.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="43.3636363636364" customWidth="1"/>
-    <col min="3" max="3" width="24.3636363636364" customWidth="1"/>
-    <col min="4" max="4" width="23.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="20.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="43.3619047619048" customWidth="1"/>
+    <col min="3" max="3" width="24.3619047619048" customWidth="1"/>
+    <col min="4" max="4" width="23.0952380952381" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="14.6363636363636" customWidth="1"/>
-    <col min="10" max="10" width="15.7272727272727" customWidth="1"/>
-    <col min="11" max="11" width="14.4545454545455" customWidth="1"/>
-    <col min="12" max="12" width="20.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="14.6380952380952" customWidth="1"/>
+    <col min="10" max="10" width="15.7238095238095" customWidth="1"/>
+    <col min="11" max="11" width="14.4571428571429" customWidth="1"/>
+    <col min="12" max="12" width="20.2761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="21" spans="2:2">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="62" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="88" customHeight="1" spans="1:12">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="58" t="s">
+      <c r="J4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="60" t="s">
+      <c r="L4" s="67" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="75" customHeight="1" spans="2:12">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="J5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="59"/>
+      <c r="B6" s="66"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2743,18 +2761,18 @@
   <sheetPr/>
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="190.363636363636" customWidth="1"/>
-    <col min="3" max="3" width="30.1818181818182" customWidth="1"/>
-    <col min="4" max="4" width="91.8181818181818" customWidth="1"/>
-    <col min="5" max="5" width="45.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="65.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="22.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="102.142857142857" customWidth="1"/>
+    <col min="3" max="3" width="12.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="29.5714285714286" style="26" customWidth="1"/>
+    <col min="5" max="5" width="33.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="31.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2764,16 +2782,16 @@
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -2782,8 +2800,8 @@
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="3"/>
@@ -2795,7 +2813,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2805,7 +2823,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2818,8 +2836,8 @@
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
@@ -2829,7 +2847,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="29" spans="1:8">
+    <row r="6" ht="30" spans="1:8">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -2837,7 +2855,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
         <v>22</v>
@@ -2851,18 +2869,18 @@
         <v>23</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="145" spans="2:8">
+    <row r="8" ht="60" spans="2:8">
       <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2876,7 +2894,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2888,7 +2906,7 @@
         <v>27</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -2898,7 +2916,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -2914,29 +2932,29 @@
       <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="34" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="14"/>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="37" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
@@ -2946,124 +2964,150 @@
         <v>36</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" ht="151" customHeight="1" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3"/>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="61" t="s">
+        <v>50</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" ht="30" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="9"/>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" ht="67" customHeight="1" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="9"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" ht="37" customHeight="1" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="9"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" ht="37" customHeight="1" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="3" t="s">
-        <v>55</v>
+      <c r="D21" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="9"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" ht="45" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="3" t="s">
-        <v>58</v>
+      <c r="D22" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="9"/>
@@ -3071,59 +3115,59 @@
     </row>
     <row r="23" ht="28" customHeight="1" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="9"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" ht="45" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="3" t="s">
-        <v>64</v>
+      <c r="D24" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="9"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" ht="30" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="3" t="s">
-        <v>67</v>
+      <c r="D25" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="9"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" ht="101.5" spans="1:7">
+    <row r="26" ht="105" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="3" t="s">
-        <v>70</v>
+      <c r="D26" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="9"/>
@@ -3131,14 +3175,14 @@
     </row>
     <row r="27" ht="27" customHeight="1" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>72</v>
+        <v>79</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3146,14 +3190,14 @@
     </row>
     <row r="28" ht="27" customHeight="1" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="46" t="s">
-        <v>76</v>
+      <c r="D28" s="51" t="s">
+        <v>84</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3161,14 +3205,14 @@
     </row>
     <row r="29" ht="27" customHeight="1" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="46" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -3176,14 +3220,14 @@
     </row>
     <row r="30" ht="27" customHeight="1" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="46" t="s">
-        <v>82</v>
+      <c r="D30" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -3191,14 +3235,14 @@
     </row>
     <row r="31" ht="27" customHeight="1" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="46" t="s">
-        <v>85</v>
+      <c r="D31" s="51" t="s">
+        <v>93</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -3206,14 +3250,14 @@
     </row>
     <row r="32" ht="27" customHeight="1" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C32" s="15"/>
-      <c r="D32" s="46" t="s">
-        <v>88</v>
+      <c r="D32" s="51" t="s">
+        <v>96</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -3221,29 +3265,29 @@
     </row>
     <row r="33" ht="27" customHeight="1" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C33" s="15"/>
-      <c r="D33" s="46" t="s">
-        <v>91</v>
+      <c r="D33" s="51" t="s">
+        <v>99</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" ht="30" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C34" s="15"/>
-      <c r="D34" s="46" t="s">
-        <v>94</v>
+      <c r="D34" s="51" t="s">
+        <v>102</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -3251,105 +3295,159 @@
     </row>
     <row r="35" customFormat="1" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C35" s="15"/>
-      <c r="D35" s="46" t="s">
-        <v>94</v>
+      <c r="D35" s="51" t="s">
+        <v>102</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="35"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" s="25" customFormat="1" spans="1:7">
       <c r="A36" s="20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
+        <v>105</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="52"/>
-    </row>
-    <row r="37" s="24" customFormat="1" ht="29" spans="1:4">
-      <c r="A37" s="41"/>
-      <c r="B37" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" s="25" customFormat="1" spans="1:4">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45" t="s">
-        <v>100</v>
+      <c r="G36" s="57"/>
+    </row>
+    <row r="37" s="24" customFormat="1" ht="75" spans="1:4">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" s="25" customFormat="1" ht="75" spans="1:4">
+      <c r="A38" s="49"/>
+      <c r="B38" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" s="25" customFormat="1" spans="1:4">
+      <c r="D38" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" s="25" customFormat="1" ht="75" spans="1:4">
       <c r="A39" s="24"/>
-      <c r="B39" s="45" t="s">
-        <v>102</v>
+      <c r="B39" s="50" t="s">
+        <v>110</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" s="25" customFormat="1" spans="1:4">
+      <c r="D39" s="48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" s="25" customFormat="1" ht="60" spans="1:4">
       <c r="A40" s="24"/>
-      <c r="B40" s="45" t="s">
-        <v>104</v>
+      <c r="B40" s="50" t="s">
+        <v>112</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" s="25" customFormat="1" ht="29" spans="2:2">
-      <c r="B41" s="53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" s="25" customFormat="1" spans="2:2">
-      <c r="B42" s="54"/>
-    </row>
-    <row r="43" s="25" customFormat="1"/>
-    <row r="44" s="25" customFormat="1"/>
-    <row r="45" s="25" customFormat="1"/>
-    <row r="46" s="25" customFormat="1"/>
-    <row r="47" s="25" customFormat="1"/>
-    <row r="48" s="25" customFormat="1"/>
-    <row r="49" s="25" customFormat="1"/>
-    <row r="50" s="25" customFormat="1"/>
-    <row r="51" s="25" customFormat="1"/>
-    <row r="52" s="25" customFormat="1"/>
-    <row r="53" s="25" customFormat="1"/>
-    <row r="54" s="25" customFormat="1"/>
-    <row r="55" s="25" customFormat="1"/>
-    <row r="56" s="25" customFormat="1"/>
-    <row r="57" s="25" customFormat="1"/>
-    <row r="58" s="25" customFormat="1"/>
-    <row r="59" s="25" customFormat="1"/>
-    <row r="60" s="25" customFormat="1"/>
-    <row r="61" s="25" customFormat="1"/>
-    <row r="62" s="25" customFormat="1"/>
-    <row r="63" s="25" customFormat="1"/>
-    <row r="64" s="25" customFormat="1"/>
-    <row r="65" s="25" customFormat="1"/>
-    <row r="66" s="25" customFormat="1"/>
-    <row r="67" s="25" customFormat="1"/>
-    <row r="68" s="25" customFormat="1"/>
+      <c r="D40" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" s="25" customFormat="1" ht="30" spans="2:4">
+      <c r="B41" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="59"/>
+    </row>
+    <row r="42" s="25" customFormat="1" spans="2:4">
+      <c r="B42" s="60"/>
+      <c r="D42" s="59"/>
+    </row>
+    <row r="43" s="25" customFormat="1" spans="4:4">
+      <c r="D43" s="59"/>
+    </row>
+    <row r="44" s="25" customFormat="1" spans="4:4">
+      <c r="D44" s="59"/>
+    </row>
+    <row r="45" s="25" customFormat="1" spans="4:4">
+      <c r="D45" s="59"/>
+    </row>
+    <row r="46" s="25" customFormat="1" spans="4:4">
+      <c r="D46" s="59"/>
+    </row>
+    <row r="47" s="25" customFormat="1" spans="4:4">
+      <c r="D47" s="59"/>
+    </row>
+    <row r="48" s="25" customFormat="1" spans="4:4">
+      <c r="D48" s="59"/>
+    </row>
+    <row r="49" s="25" customFormat="1" spans="4:4">
+      <c r="D49" s="59"/>
+    </row>
+    <row r="50" s="25" customFormat="1" spans="4:4">
+      <c r="D50" s="59"/>
+    </row>
+    <row r="51" s="25" customFormat="1" spans="4:4">
+      <c r="D51" s="59"/>
+    </row>
+    <row r="52" s="25" customFormat="1" spans="4:4">
+      <c r="D52" s="59"/>
+    </row>
+    <row r="53" s="25" customFormat="1" spans="4:4">
+      <c r="D53" s="59"/>
+    </row>
+    <row r="54" s="25" customFormat="1" spans="4:4">
+      <c r="D54" s="59"/>
+    </row>
+    <row r="55" s="25" customFormat="1" spans="4:4">
+      <c r="D55" s="59"/>
+    </row>
+    <row r="56" s="25" customFormat="1" spans="4:4">
+      <c r="D56" s="59"/>
+    </row>
+    <row r="57" s="25" customFormat="1" spans="4:4">
+      <c r="D57" s="59"/>
+    </row>
+    <row r="58" s="25" customFormat="1" spans="4:4">
+      <c r="D58" s="59"/>
+    </row>
+    <row r="59" s="25" customFormat="1" spans="4:4">
+      <c r="D59" s="59"/>
+    </row>
+    <row r="60" s="25" customFormat="1" spans="4:4">
+      <c r="D60" s="59"/>
+    </row>
+    <row r="61" s="25" customFormat="1" spans="4:4">
+      <c r="D61" s="59"/>
+    </row>
+    <row r="62" s="25" customFormat="1" spans="4:4">
+      <c r="D62" s="59"/>
+    </row>
+    <row r="63" s="25" customFormat="1" spans="4:4">
+      <c r="D63" s="59"/>
+    </row>
+    <row r="64" s="25" customFormat="1" spans="4:4">
+      <c r="D64" s="59"/>
+    </row>
+    <row r="65" s="25" customFormat="1" spans="4:4">
+      <c r="D65" s="59"/>
+    </row>
+    <row r="66" s="25" customFormat="1" spans="4:4">
+      <c r="D66" s="59"/>
+    </row>
+    <row r="67" s="25" customFormat="1" spans="4:4">
+      <c r="D67" s="59"/>
+    </row>
+    <row r="68" s="25" customFormat="1" spans="4:4">
+      <c r="D68" s="59"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:H1"/>
@@ -3366,18 +3464,18 @@
   <sheetPr/>
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.2727272727273" customWidth="1"/>
-    <col min="2" max="2" width="99.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="12.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="62.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="15.9090909090909" customWidth="1"/>
-    <col min="6" max="6" width="30.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="22.2761904761905" customWidth="1"/>
+    <col min="2" max="2" width="99.6380952380952" customWidth="1"/>
+    <col min="3" max="3" width="12.2761904761905" customWidth="1"/>
+    <col min="4" max="4" width="42.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="35.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="30.2761904761905" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3385,18 +3483,18 @@
         <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="26"/>
+        <v>115</v>
+      </c>
+      <c r="C1" s="27"/>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -3405,7 +3503,7 @@
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3441,8 +3539,8 @@
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
@@ -3452,7 +3550,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="29" spans="1:8">
+    <row r="6" ht="30" spans="1:8">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -3480,9 +3578,9 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="130.5" spans="2:8">
+    <row r="8" ht="60" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3496,7 +3594,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3541,79 +3639,87 @@
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="14"/>
-      <c r="B13" s="33" t="s">
-        <v>111</v>
+      <c r="B13" s="37" t="s">
+        <v>119</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="9"/>
+        <v>121</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="9"/>
+        <v>123</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E16" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="E16" s="58"/>
       <c r="F16" s="9"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" ht="89" customHeight="1" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="9"/>
@@ -3621,29 +3727,29 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="9"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" ht="101.5" spans="1:7">
+    <row r="19" ht="105" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="9"/>
@@ -3651,14 +3757,14 @@
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>120</v>
+        <v>58</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>130</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3666,14 +3772,14 @@
     </row>
     <row r="21" ht="27" customHeight="1" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="49"/>
+        <v>61</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="26"/>
       <c r="D21" s="4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3681,14 +3787,14 @@
     </row>
     <row r="22" ht="27" customHeight="1" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="46" t="s">
-        <v>79</v>
+        <v>133</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3696,14 +3802,14 @@
     </row>
     <row r="23" ht="27" customHeight="1" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="46" t="s">
-        <v>82</v>
+      <c r="D23" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -3711,14 +3817,14 @@
     </row>
     <row r="24" ht="27" customHeight="1" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C24" s="15"/>
-      <c r="D24" s="46" t="s">
-        <v>85</v>
+      <c r="D24" s="51" t="s">
+        <v>93</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3726,14 +3832,14 @@
     </row>
     <row r="25" ht="27" customHeight="1" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C25" s="15"/>
-      <c r="D25" s="46" t="s">
-        <v>88</v>
+      <c r="D25" s="51" t="s">
+        <v>96</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -3741,29 +3847,29 @@
     </row>
     <row r="26" ht="27" customHeight="1" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C26" s="15"/>
-      <c r="D26" s="46" t="s">
-        <v>91</v>
+      <c r="D26" s="51" t="s">
+        <v>99</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" ht="29" spans="1:7">
+    <row r="27" ht="30" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="46" t="s">
-        <v>94</v>
+      <c r="D27" s="51" t="s">
+        <v>102</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3771,78 +3877,78 @@
     </row>
     <row r="28" customFormat="1" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="46" t="s">
-        <v>94</v>
+      <c r="D28" s="51" t="s">
+        <v>102</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="35"/>
+      <c r="G28" s="40"/>
     </row>
     <row r="29" s="25" customFormat="1" spans="1:7">
       <c r="A29" s="20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
+        <v>105</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="52"/>
-    </row>
-    <row r="30" s="24" customFormat="1" ht="29" spans="1:4">
-      <c r="A30" s="41"/>
-      <c r="B30" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>99</v>
+      <c r="G29" s="57"/>
+    </row>
+    <row r="30" s="24" customFormat="1" ht="30" spans="1:4">
+      <c r="A30" s="46"/>
+      <c r="B30" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31" s="25" customFormat="1" spans="1:4">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45" t="s">
-        <v>100</v>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="43" t="s">
-        <v>101</v>
+      <c r="D31" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" s="25" customFormat="1" spans="1:4">
       <c r="A32" s="24"/>
-      <c r="B32" s="45" t="s">
-        <v>102</v>
+      <c r="B32" s="50" t="s">
+        <v>110</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="43" t="s">
-        <v>103</v>
+      <c r="D32" s="54" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33" s="25" customFormat="1" spans="1:4">
       <c r="A33" s="24"/>
-      <c r="B33" s="45" t="s">
-        <v>104</v>
+      <c r="B33" s="50" t="s">
+        <v>112</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="43" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" s="25" customFormat="1" ht="29" spans="2:2">
-      <c r="B34" s="53" t="s">
-        <v>106</v>
+      <c r="D33" s="54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" s="25" customFormat="1" ht="30" spans="2:2">
+      <c r="B34" s="59" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" s="25" customFormat="1" spans="2:2">
-      <c r="B35" s="54"/>
+      <c r="B35" s="60"/>
     </row>
     <row r="36" s="25" customFormat="1"/>
     <row r="37" s="25" customFormat="1"/>
@@ -3886,18 +3992,19 @@
   <sheetPr/>
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="116.181818181818" customWidth="1"/>
-    <col min="3" max="3" width="48.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="138" customWidth="1"/>
-    <col min="5" max="5" width="13.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="17.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="98.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="17.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="56.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="28.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="15.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="17.0952380952381" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3905,18 +4012,18 @@
         <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="26"/>
+        <v>136</v>
+      </c>
+      <c r="C1" s="27"/>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -3925,7 +4032,7 @@
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
@@ -3961,8 +4068,8 @@
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
@@ -4000,9 +4107,9 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="145" spans="2:8">
+    <row r="8" ht="60" spans="2:8">
       <c r="B8" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4016,7 +4123,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4061,34 +4168,34 @@
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="35" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="14"/>
-      <c r="B13" s="33" t="s">
-        <v>129</v>
+      <c r="B13" s="37" t="s">
+        <v>138</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" customFormat="1" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="9"/>
@@ -4096,14 +4203,14 @@
     </row>
     <row r="15" customFormat="1" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="9"/>
@@ -4111,14 +4218,14 @@
     </row>
     <row r="16" customFormat="1" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="9"/>
@@ -4126,14 +4233,14 @@
     </row>
     <row r="17" customFormat="1" ht="76" customHeight="1" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="9"/>
@@ -4141,25 +4248,25 @@
     </row>
     <row r="18" customFormat="1" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="9"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" customFormat="1" ht="72.5" spans="1:7">
+    <row r="19" customFormat="1" ht="75" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3"/>
@@ -4167,16 +4274,16 @@
       <c r="F19" s="9"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" customFormat="1" ht="101.5" spans="1:7">
+    <row r="20" customFormat="1" ht="105" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="9"/>
@@ -4184,14 +4291,14 @@
     </row>
     <row r="21" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>139</v>
+        <v>61</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>148</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4199,14 +4306,14 @@
     </row>
     <row r="22" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="49"/>
+        <v>64</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="26"/>
       <c r="D22" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -4214,14 +4321,14 @@
     </row>
     <row r="23" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="49"/>
+        <v>67</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="26"/>
       <c r="D23" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -4229,14 +4336,14 @@
     </row>
     <row r="24" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="49"/>
+        <v>70</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="26"/>
       <c r="D24" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4244,14 +4351,14 @@
     </row>
     <row r="25" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="46" t="s">
-        <v>79</v>
+        <v>133</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="51" t="s">
+        <v>87</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -4259,14 +4366,14 @@
     </row>
     <row r="26" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="46" t="s">
-        <v>82</v>
+      <c r="D26" s="51" t="s">
+        <v>90</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -4274,14 +4381,14 @@
     </row>
     <row r="27" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C27" s="15"/>
-      <c r="D27" s="46" t="s">
-        <v>85</v>
+      <c r="D27" s="51" t="s">
+        <v>93</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -4289,14 +4396,14 @@
     </row>
     <row r="28" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="46" t="s">
-        <v>88</v>
+      <c r="D28" s="51" t="s">
+        <v>96</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4304,29 +4411,29 @@
     </row>
     <row r="29" customFormat="1" ht="27" customHeight="1" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C29" s="15"/>
-      <c r="D29" s="46" t="s">
-        <v>91</v>
+      <c r="D29" s="51" t="s">
+        <v>99</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" customFormat="1" spans="1:7">
+    <row r="30" customFormat="1" ht="30" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="46" t="s">
-        <v>94</v>
+      <c r="D30" s="51" t="s">
+        <v>102</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -4334,69 +4441,69 @@
     </row>
     <row r="31" customFormat="1" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C31" s="15"/>
-      <c r="D31" s="46" t="s">
-        <v>94</v>
+      <c r="D31" s="51" t="s">
+        <v>102</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="35"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" s="25" customFormat="1" spans="1:7">
       <c r="A32" s="20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
+        <v>105</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="52"/>
+      <c r="G32" s="57"/>
     </row>
     <row r="33" s="24" customFormat="1" ht="31" customHeight="1" spans="1:4">
-      <c r="A33" s="41"/>
-      <c r="B33" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>99</v>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="34" s="25" customFormat="1" ht="32" customHeight="1" spans="1:4">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45" t="s">
-        <v>100</v>
+      <c r="A34" s="49"/>
+      <c r="B34" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="43" t="s">
-        <v>101</v>
+      <c r="D34" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35" s="25" customFormat="1" ht="32" customHeight="1" spans="1:4">
       <c r="A35" s="24"/>
-      <c r="B35" s="45" t="s">
-        <v>102</v>
+      <c r="B35" s="50" t="s">
+        <v>110</v>
       </c>
       <c r="C35" s="24"/>
-      <c r="D35" s="43" t="s">
-        <v>103</v>
+      <c r="D35" s="54" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" s="25" customFormat="1" ht="32" customHeight="1" spans="1:4">
       <c r="A36" s="24"/>
-      <c r="B36" s="45" t="s">
-        <v>104</v>
+      <c r="B36" s="50" t="s">
+        <v>112</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="43" t="s">
-        <v>105</v>
+      <c r="D36" s="54" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4415,37 +4522,37 @@
   <sheetPr/>
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A31" sqref="$A31:$XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="116.181818181818" customWidth="1"/>
+    <col min="2" max="2" width="116.180952380952" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="138" customWidth="1"/>
-    <col min="5" max="5" width="13.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="22.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="13.7238095238095" customWidth="1"/>
+    <col min="8" max="8" width="22.1809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" spans="1:8">
+    <row r="1" ht="30" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="26"/>
+        <v>151</v>
+      </c>
+      <c r="C1" s="27"/>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+        <v>152</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -4454,7 +4561,7 @@
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
@@ -4490,8 +4597,8 @@
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
@@ -4512,15 +4619,15 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="145" spans="1:8">
+    <row r="7" ht="60" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4543,7 +4650,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4588,289 +4695,289 @@
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="36" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="43.5" spans="1:8">
+    <row r="13" s="1" customFormat="1" ht="45" spans="1:8">
       <c r="A13" s="14"/>
-      <c r="B13" s="33" t="s">
-        <v>147</v>
+      <c r="B13" s="37" t="s">
+        <v>155</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" customFormat="1" ht="29" spans="1:8">
+    <row r="14" customFormat="1" ht="30" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="38" t="s">
-        <v>148</v>
+      <c r="B14" s="43" t="s">
+        <v>156</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
+        <v>157</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" customFormat="1" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="37"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="37"/>
+        <v>160</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" ht="86" customHeight="1" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>153</v>
+        <v>47</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>161</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="37"/>
+        <v>162</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="35"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="37"/>
+        <v>53</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" ht="16" customHeight="1" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="37"/>
+        <v>165</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" ht="28" customHeight="1" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="37"/>
+        <v>167</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" ht="28" customHeight="1" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="37"/>
+        <v>169</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" ht="77" customHeight="1" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="37"/>
+        <v>171</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
+        <v>93</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:8">
       <c r="A24" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+        <v>70</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="15" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
+        <v>176</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
+        <v>178</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="15" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
+        <v>180</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="15" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
+        <v>182</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="15" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+        <v>184</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
       <c r="H29" s="3"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="22"/>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="3"/>
@@ -4878,43 +4985,43 @@
       <c r="G30" s="9"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" s="24" customFormat="1" ht="29" spans="1:4">
-      <c r="A31" s="41"/>
-      <c r="B31" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>99</v>
+    <row r="31" s="24" customFormat="1" ht="30" spans="1:4">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="32" s="25" customFormat="1" spans="1:4">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45" t="s">
-        <v>100</v>
+      <c r="A32" s="49"/>
+      <c r="B32" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="43" t="s">
-        <v>101</v>
+      <c r="D32" s="54" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" s="25" customFormat="1" spans="1:4">
       <c r="A33" s="24"/>
-      <c r="B33" s="45" t="s">
-        <v>102</v>
+      <c r="B33" s="50" t="s">
+        <v>110</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="43" t="s">
-        <v>103</v>
+      <c r="D33" s="54" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34" s="25" customFormat="1" spans="1:4">
       <c r="A34" s="24"/>
-      <c r="B34" s="45" t="s">
-        <v>104</v>
+      <c r="B34" s="50" t="s">
+        <v>112</v>
       </c>
       <c r="C34" s="24"/>
-      <c r="D34" s="43" t="s">
-        <v>105</v>
+      <c r="D34" s="54" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4934,14 +5041,15 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="101.636363636364" customWidth="1"/>
-    <col min="4" max="4" width="50.8181818181818" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
+    <col min="4" max="4" width="50.8190476190476" style="26" customWidth="1"/>
+    <col min="5" max="5" width="19.6285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4949,18 +5057,18 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -4969,8 +5077,8 @@
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="3"/>
@@ -4982,7 +5090,7 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -4992,7 +5100,7 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -5005,8 +5113,8 @@
       <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
@@ -5024,21 +5132,21 @@
         <v>21</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="145" spans="1:8">
+    <row r="7" ht="60" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -5047,7 +5155,7 @@
     <row r="8" spans="2:8">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -5058,10 +5166,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -5071,7 +5179,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5081,7 +5189,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5097,169 +5205,175 @@
       <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="34" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="32" t="s">
+      <c r="G12" s="36" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:8">
       <c r="A13" s="14"/>
-      <c r="B13" s="33" t="s">
-        <v>181</v>
+      <c r="B13" s="37" t="s">
+        <v>188</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" customFormat="1" spans="1:8">
+    <row r="14" customFormat="1" ht="30" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
+        <v>190</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="42"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="37"/>
+        <v>194</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="3"/>
     </row>
     <row r="16" ht="128" customHeight="1" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>186</v>
+        <v>45</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>196</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="37"/>
+      <c r="D16" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="3"/>
     </row>
     <row r="17" ht="28" customHeight="1" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>188</v>
+        <v>47</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>198</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="37"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="3"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="37"/>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" ht="30" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+        <v>202</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" ht="30" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
+        <v>204</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
+        <v>206</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="20" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="22"/>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="3"/>
@@ -5267,43 +5381,43 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" s="24" customFormat="1" ht="29" spans="1:4">
-      <c r="A23" s="41"/>
-      <c r="B23" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" s="25" customFormat="1" spans="1:4">
-      <c r="A24" s="44"/>
-      <c r="B24" s="45" t="s">
-        <v>100</v>
+    <row r="23" s="24" customFormat="1" ht="45" spans="1:4">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" s="25" customFormat="1" ht="45" spans="1:4">
+      <c r="A24" s="49"/>
+      <c r="B24" s="50" t="s">
+        <v>108</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" s="25" customFormat="1" spans="1:4">
+      <c r="D24" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" s="25" customFormat="1" ht="45" spans="1:4">
       <c r="A25" s="24"/>
-      <c r="B25" s="45" t="s">
-        <v>102</v>
+      <c r="B25" s="50" t="s">
+        <v>110</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" s="25" customFormat="1" spans="1:4">
+      <c r="D25" s="48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" s="25" customFormat="1" ht="30" spans="1:4">
       <c r="A26" s="24"/>
-      <c r="B26" s="45" t="s">
-        <v>104</v>
+      <c r="B26" s="50" t="s">
+        <v>112</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="43" t="s">
-        <v>105</v>
+      <c r="D26" s="48" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -5321,18 +5435,18 @@
   <sheetPr/>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
-    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
-    <col min="4" max="4" width="75.2727272727273" customWidth="1"/>
-    <col min="6" max="6" width="36.1818181818182" customWidth="1"/>
-    <col min="8" max="8" width="15.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="9.54285714285714" customWidth="1"/>
+    <col min="4" max="4" width="75.2761904761905" customWidth="1"/>
+    <col min="6" max="6" width="36.1809523809524" customWidth="1"/>
+    <col min="8" max="8" width="15.8190476190476" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5340,14 +5454,14 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -5398,12 +5512,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -5432,7 +5546,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -5491,7 +5605,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
@@ -5504,11 +5618,11 @@
         <v>35</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="17" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5516,14 +5630,14 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="17" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5531,14 +5645,14 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -5546,7 +5660,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="14"/>
@@ -5558,7 +5672,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="13" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
@@ -5568,14 +5682,14 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="17" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -5583,14 +5697,14 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -5598,14 +5712,14 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -5613,14 +5727,14 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -5629,7 +5743,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
@@ -5637,16 +5751,16 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" ht="72.5" spans="1:7">
+    <row r="24" ht="75" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -5655,7 +5769,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -5663,16 +5777,16 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" ht="58" spans="1:7">
+    <row r="26" ht="60" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -5680,14 +5794,14 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="9" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -5695,14 +5809,14 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -5710,10 +5824,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
@@ -5723,10 +5837,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
@@ -5737,7 +5851,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="15"/>
       <c r="B31" s="20" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
@@ -5745,46 +5859,46 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" ht="116" spans="1:7">
+    <row r="32" ht="120" spans="1:7">
       <c r="A32" s="15" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" ht="29" spans="1:7">
+    <row r="33" ht="30" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" ht="29" spans="1:7">
+    <row r="34" ht="30" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -5792,29 +5906,29 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="9" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" ht="43.5" spans="1:7">
+    <row r="36" ht="45" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="9" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -5822,14 +5936,14 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="9" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -5837,14 +5951,14 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -5852,14 +5966,14 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -5867,29 +5981,29 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" ht="72.5" spans="1:7">
+    <row r="41" ht="75" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -5897,14 +6011,14 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -5912,14 +6026,14 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -5927,14 +6041,14 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -5942,14 +6056,14 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="9" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -5957,14 +6071,14 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="9" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -5972,10 +6086,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="9"/>
@@ -5985,25 +6099,25 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="9" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" ht="29" spans="1:7">
+    <row r="49" ht="30" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="9"/>
@@ -6013,14 +6127,14 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="9" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -6028,10 +6142,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="9"/>
@@ -6041,10 +6155,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="9"/>
@@ -6054,10 +6168,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="9"/>
@@ -6067,10 +6181,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="9"/>
@@ -6090,7 +6204,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="20" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="9"/>
@@ -6100,14 +6214,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="9" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -6125,7 +6239,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="20" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="9"/>
@@ -6135,14 +6249,14 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="9" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -6150,14 +6264,14 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="9" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -6165,14 +6279,14 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="9" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -6180,31 +6294,31 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="9" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="9" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -6212,29 +6326,29 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="9" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" ht="43.5" spans="1:7">
+    <row r="66" ht="45" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="9" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -6242,29 +6356,29 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="9" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" ht="159.5" spans="1:7">
+    <row r="68" ht="165" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -6272,14 +6386,14 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="9" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -6287,14 +6401,14 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="9" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -6302,14 +6416,14 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="9" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -6317,14 +6431,14 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="9" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="9"/>
@@ -6332,14 +6446,14 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="9" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="9"/>
@@ -6347,14 +6461,14 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="9" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="9"/>
@@ -6362,14 +6476,14 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="9" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="9"/>
@@ -6377,14 +6491,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="9" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -6392,14 +6506,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="9" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -6408,7 +6522,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -6418,14 +6532,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="3"/>
@@ -6433,14 +6547,14 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="3"/>
@@ -6448,14 +6562,14 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
